--- a/HRBackend/uploads/promech12.xlsx
+++ b/HRBackend/uploads/promech12.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ATT\2023\Oct 2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ATT\2023\Oct 2023\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BEF474AB-A057-4C6E-A551-EB23A19A82A2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B89D2DF0-F27E-4D5E-BAA3-883744C3BC41}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="AttendanceRecord" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="182">
   <si>
     <t>Employee ID</t>
   </si>
@@ -28,6 +28,9 @@
     <t>Name</t>
   </si>
   <si>
+    <t>Department</t>
+  </si>
+  <si>
     <t>2023/09/21</t>
   </si>
   <si>
@@ -115,7 +118,7 @@
     <t>2023/10/19</t>
   </si>
   <si>
-    <t>2023/10/20</t>
+    <t>Company</t>
   </si>
   <si>
     <t>--:-- --:--
@@ -502,9 +505,6 @@
 --:-- --:--</t>
   </si>
   <si>
-    <t>M hosam</t>
-  </si>
-  <si>
     <t>Farag</t>
   </si>
   <si>
@@ -965,33 +965,6 @@
   </si>
   <si>
     <t>08:58 17:00
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>Nayera</t>
-  </si>
-  <si>
-    <t>11:20 17:38
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:08 17:05
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:10 17:06
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:13 17:00
 --:-- --:--
 --:-- --:--
 --:-- --:--</t>
@@ -1024,17 +997,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="52"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="22"/>
       </patternFill>
     </fill>
   </fills>
@@ -1070,13 +1043,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1461,16 +1434,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF18"/>
+  <dimension ref="A1:AF16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="256" width="17" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="17" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:32" ht="18" customHeight="1">
       <c r="A1" s="3" t="s">
@@ -1479,7 +1449,7 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -1575,19 +1545,19 @@
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>36</v>
@@ -1599,19 +1569,19 @@
         <v>38</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="O2" s="4" t="s">
         <v>40</v>
@@ -1620,37 +1590,37 @@
         <v>41</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U2" s="4" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="V2" s="4" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="W2" s="4" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="X2" s="4" t="s">
         <v>44</v>
       </c>
       <c r="Y2" s="4" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="Z2" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AA2" s="4" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="AB2" s="4" t="s">
         <v>46</v>
@@ -1665,7 +1635,7 @@
         <v>49</v>
       </c>
       <c r="AF2" s="4" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:32" ht="63" customHeight="1">
@@ -1673,61 +1643,61 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="U3" s="1" t="s">
         <v>53</v>
@@ -1742,28 +1712,28 @@
         <v>56</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="AC3" s="1" t="s">
         <v>58</v>
       </c>
       <c r="AD3" s="1" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="AE3" s="1" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="AF3" s="1" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:32" ht="63" customHeight="1">
@@ -1771,97 +1741,97 @@
         <v>6</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T4" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U4" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V4" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="W4" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X4" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Y4" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Z4" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AA4" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AB4" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AC4" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AD4" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AE4" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AF4" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:32" ht="63" customHeight="1">
@@ -1869,97 +1839,97 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>67</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Z5" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AC5" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AD5" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AE5" s="1" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="AF5" s="1" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:32" ht="63" customHeight="1">
@@ -1967,40 +1937,40 @@
         <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>72</v>
@@ -2012,37 +1982,37 @@
         <v>74</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Z6" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="AB6" s="1" t="s">
         <v>77</v>
@@ -2051,13 +2021,13 @@
         <v>78</v>
       </c>
       <c r="AD6" s="1" t="s">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="AE6" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AF6" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:32" ht="63" customHeight="1">
@@ -2065,19 +2035,19 @@
         <v>12</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>81</v>
+        <v>33</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>82</v>
@@ -2089,16 +2059,16 @@
         <v>84</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>85</v>
+        <v>33</v>
       </c>
       <c r="N7" s="4" t="s">
         <v>86</v>
@@ -2110,16 +2080,16 @@
         <v>88</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>32</v>
+        <v>89</v>
       </c>
       <c r="R7" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S7" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>89</v>
+        <v>33</v>
       </c>
       <c r="U7" s="4" t="s">
         <v>90</v>
@@ -2134,13 +2104,13 @@
         <v>93</v>
       </c>
       <c r="Y7" s="4" t="s">
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="Z7" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AA7" s="4" t="s">
-        <v>94</v>
+        <v>33</v>
       </c>
       <c r="AB7" s="4" t="s">
         <v>95</v>
@@ -2155,1085 +2125,889 @@
         <v>98</v>
       </c>
       <c r="AF7" s="4" t="s">
-        <v>32</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:32" ht="63" customHeight="1">
-      <c r="A8" s="1">
-        <v>13</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="A8" s="4">
+        <v>14</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="S8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="U8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="V8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="W8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="X8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AE8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AF8" s="1" t="s">
-        <v>32</v>
+      <c r="D8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="T8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="U8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="V8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="W8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="X8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF8" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:32" ht="63" customHeight="1">
-      <c r="A9" s="4">
-        <v>14</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C9" s="4" t="s">
+      <c r="A9" s="1">
+        <v>15</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="N9" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="O9" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="P9" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q9" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="R9" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="S9" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="T9" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="U9" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="V9" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="W9" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="X9" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y9" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z9" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA9" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB9" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC9" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD9" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AE9" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AF9" s="4" t="s">
-        <v>32</v>
+      <c r="D9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC9" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AD9" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AE9" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AF9" s="1" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:32" ht="63" customHeight="1">
-      <c r="A10" s="1">
-        <v>15</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="A10" s="4">
+        <v>16</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="S10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="U10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="V10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="W10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="X10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB10" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="AC10" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="AD10" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="AE10" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AF10" s="1" t="s">
-        <v>32</v>
+      <c r="D10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="T10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="U10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="V10" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="W10" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="X10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y10" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB10" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC10" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="AD10" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="AE10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF10" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:32" ht="63" customHeight="1">
-      <c r="A11" s="4">
-        <v>16</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C11" s="4" t="s">
+      <c r="A11" s="1">
+        <v>17</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="N11" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="O11" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="P11" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q11" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="R11" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="S11" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="T11" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="U11" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="V11" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="W11" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="X11" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="Y11" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z11" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA11" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="AB11" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="AC11" s="4" t="s">
+      <c r="D11" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q11" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="AD11" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AE11" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AF11" s="4" t="s">
-        <v>32</v>
+      <c r="R11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="X11" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y11" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="Z11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC11" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD11" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AE11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF11" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:32" ht="63" customHeight="1">
-      <c r="A12" s="1">
-        <v>17</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D12" s="1" t="s">
+      <c r="A12" s="4">
+        <v>18</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="S12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T12" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="U12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="V12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="W12" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="X12" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB12" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AC12" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="AD12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AE12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AF12" s="1" t="s">
-        <v>32</v>
+      <c r="D12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="R12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="S12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="T12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="U12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="V12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="W12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="X12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF12" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:32" ht="63" customHeight="1">
       <c r="A13" s="4">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>32</v>
+        <v>132</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>32</v>
+        <v>133</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>32</v>
+        <v>134</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>32</v>
+        <v>135</v>
       </c>
       <c r="P13" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q13" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R13" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S13" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T13" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U13" s="4" t="s">
-        <v>32</v>
+        <v>136</v>
       </c>
       <c r="V13" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="W13" s="4" t="s">
-        <v>32</v>
+        <v>137</v>
       </c>
       <c r="X13" s="4" t="s">
-        <v>32</v>
+        <v>138</v>
       </c>
       <c r="Y13" s="4" t="s">
-        <v>32</v>
+        <v>139</v>
       </c>
       <c r="Z13" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AA13" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AB13" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AC13" s="4" t="s">
-        <v>32</v>
+        <v>129</v>
       </c>
       <c r="AD13" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AE13" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AF13" s="4" t="s">
-        <v>32</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:32" ht="63" customHeight="1">
-      <c r="A14" s="4">
-        <v>20</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C14" s="4" t="s">
+      <c r="A14" s="1">
+        <v>21</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="L14" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="M14" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="N14" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="O14" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="P14" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q14" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="R14" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="S14" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="T14" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="U14" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="V14" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="W14" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="X14" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="Y14" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z14" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA14" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB14" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="AC14" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD14" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AE14" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="AF14" s="4" t="s">
-        <v>32</v>
+      <c r="D14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="W14" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="X14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC14" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AD14" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AE14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF14" s="1" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:32" ht="63" customHeight="1">
       <c r="A15" s="1">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>32</v>
+        <v>151</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>32</v>
+        <v>152</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>32</v>
+        <v>154</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>142</v>
+        <v>33</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>145</v>
+        <v>33</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>32</v>
+        <v>157</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>32</v>
+        <v>158</v>
       </c>
       <c r="V15" s="1" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="W15" s="1" t="s">
-        <v>32</v>
+        <v>160</v>
       </c>
       <c r="X15" s="1" t="s">
-        <v>32</v>
+        <v>161</v>
       </c>
       <c r="Y15" s="1" t="s">
-        <v>32</v>
+        <v>162</v>
       </c>
       <c r="Z15" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AA15" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AB15" s="1" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="AC15" s="1" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="AD15" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AE15" s="1" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="AF15" s="1" t="s">
-        <v>32</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16" spans="1:32" ht="63" customHeight="1">
       <c r="A16" s="1">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>151</v>
+        <v>32</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>32</v>
+        <v>168</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>152</v>
+        <v>33</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>32</v>
+        <v>129</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>154</v>
+        <v>128</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>32</v>
+        <v>170</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>155</v>
+        <v>33</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>32</v>
+        <v>172</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>32</v>
+        <v>174</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="U16" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="U16" s="1" t="s">
-        <v>159</v>
-      </c>
       <c r="V16" s="1" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="W16" s="1" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="X16" s="1" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="Y16" s="1" t="s">
-        <v>32</v>
+        <v>178</v>
       </c>
       <c r="Z16" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AA16" s="1" t="s">
-        <v>163</v>
+        <v>33</v>
       </c>
       <c r="AB16" s="1" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="AC16" s="1" t="s">
-        <v>32</v>
+        <v>180</v>
       </c>
       <c r="AD16" s="1" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="AE16" s="1" t="s">
-        <v>166</v>
+        <v>33</v>
       </c>
       <c r="AF16" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:32" ht="63" customHeight="1">
-      <c r="A17" s="1">
-        <v>25</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="P17" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="S17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T17" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="U17" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="V17" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="W17" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="X17" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="Y17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA17" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="AB17" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="AC17" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="AD17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AE17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AF17" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:32" ht="63" customHeight="1">
-      <c r="A18" s="4">
-        <v>26</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="K18" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="L18" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="M18" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="N18" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="O18" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="P18" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q18" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="R18" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="S18" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="T18" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="U18" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="V18" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="W18" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="X18" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y18" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z18" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA18" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB18" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="AC18" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="AD18" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="AE18" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="AF18" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
